--- a/media/temp/1/a_oth_36_1.xlsx
+++ b/media/temp/1/a_oth_36_1.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -613,13 +613,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="33.07" customWidth="1" style="23" min="1" max="1"/>
     <col width="14.31" customWidth="1" style="23" min="2" max="2"/>
@@ -878,162 +878,146 @@
     <row r="23" ht="15" customHeight="1" s="24">
       <c r="A23" s="32" t="inlineStr">
         <is>
-          <t>4,5 часа</t>
+          <t>5-6 часов</t>
         </is>
       </c>
       <c r="B23" s="33" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C23" s="33" t="n">
-        <v>29</v>
-      </c>
-      <c r="D23" s="33" t="n">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="24">
       <c r="A24" s="32" t="inlineStr">
         <is>
-          <t>5-6 часов</t>
+          <t>6-12 часов</t>
         </is>
       </c>
       <c r="B24" s="33" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C24" s="33" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D24" s="36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="24">
-      <c r="A25" s="32" t="inlineStr">
-        <is>
-          <t>6-12 часов</t>
-        </is>
-      </c>
-      <c r="B25" s="33" t="n">
         <v>23</v>
       </c>
-      <c r="C25" s="33" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="36" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8" customHeight="1" s="24">
-      <c r="A28" s="37" t="inlineStr">
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="24">
+      <c r="A27" s="37" t="inlineStr">
         <is>
           <t>Информация по мониторингу ОНМК, таблица 3</t>
         </is>
       </c>
     </row>
+    <row r="28" ht="15" customHeight="1" s="24">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="31" t="inlineStr">
+        <is>
+          <t>I60-I64.9</t>
+        </is>
+      </c>
+      <c r="C28" s="31" t="inlineStr">
+        <is>
+          <t>I63-I63.9</t>
+        </is>
+      </c>
+      <c r="D28" s="31" t="inlineStr">
+        <is>
+          <t>I60-I66.9</t>
+        </is>
+      </c>
+    </row>
     <row r="29" ht="15" customHeight="1" s="24">
-      <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="inlineStr">
+      <c r="A29" s="32" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>161</v>
+      </c>
+      <c r="C29" s="33" t="n">
+        <v>129</v>
+      </c>
+      <c r="D29" s="33" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="24">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>До суток</t>
+        </is>
+      </c>
+      <c r="B30" s="33" t="n">
+        <v>89</v>
+      </c>
+      <c r="C30" s="33" t="n">
+        <v>76</v>
+      </c>
+      <c r="D30" s="33" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="24">
+      <c r="A33" s="37" t="inlineStr">
+        <is>
+          <t>Информация по мониторингу ОНМК, таблица 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="24">
+      <c r="A34" s="30" t="n"/>
+      <c r="B34" s="31" t="inlineStr">
         <is>
           <t>I60-I64.9</t>
         </is>
       </c>
-      <c r="C29" s="31" t="inlineStr">
+      <c r="C34" s="31" t="inlineStr">
         <is>
           <t>I63-I63.9</t>
         </is>
       </c>
-      <c r="D29" s="31" t="inlineStr">
+      <c r="D34" s="31" t="inlineStr">
         <is>
           <t>I60-I66.9</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="24">
-      <c r="A30" s="32" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="24">
+      <c r="A35" s="32" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="B30" s="33" t="n">
+      <c r="B35" s="33" t="n">
         <v>161</v>
       </c>
-      <c r="C30" s="33" t="n">
+      <c r="C35" s="33" t="n">
         <v>129</v>
       </c>
-      <c r="D30" s="33" t="n">
+      <c r="D35" s="33" t="n">
         <v>202</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="24">
-      <c r="A31" s="35" t="inlineStr">
-        <is>
-          <t>До суток</t>
-        </is>
-      </c>
-      <c r="B31" s="33" t="n">
-        <v>89</v>
-      </c>
-      <c r="C31" s="33" t="n">
-        <v>76</v>
-      </c>
-      <c r="D31" s="33" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8" customHeight="1" s="24">
-      <c r="A34" s="37" t="inlineStr">
-        <is>
-          <t>Информация по мониторингу ОНМК, таблица 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="24">
-      <c r="A35" s="30" t="n"/>
-      <c r="B35" s="31" t="inlineStr">
-        <is>
-          <t>I60-I64.9</t>
-        </is>
-      </c>
-      <c r="C35" s="31" t="inlineStr">
-        <is>
-          <t>I63-I63.9</t>
-        </is>
-      </c>
-      <c r="D35" s="31" t="inlineStr">
-        <is>
-          <t>I60-I66.9</t>
-        </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="24">
       <c r="A36" s="32" t="inlineStr">
         <is>
-          <t>Всего</t>
+          <t>4,5 часа</t>
         </is>
       </c>
       <c r="B36" s="33" t="n">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="C36" s="33" t="n">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D36" s="33" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="24">
-      <c r="A37" s="32" t="inlineStr">
-        <is>
-          <t>4,5 часа</t>
-        </is>
-      </c>
-      <c r="B37" s="33" t="n">
-        <v>41</v>
-      </c>
-      <c r="C37" s="33" t="n">
-        <v>32</v>
-      </c>
-      <c r="D37" s="33" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1045,8 +1029,8 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.39375" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1062,11 +1046,11 @@
   </sheetPr>
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.06" customWidth="1" style="38" min="1" max="1"/>
     <col width="20.01" customWidth="1" style="38" min="2" max="2"/>
@@ -5453,7 +5437,11 @@
           <t>OМС(К</t>
         </is>
       </c>
-      <c r="K86" s="44" t="inlineStr"/>
+      <c r="K86" s="44" t="inlineStr">
+        <is>
+          <t>625000, обл. Тюменская, г. Тюмень, ул. Олимпийская, д. 20, кв. 400</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="35" customHeight="1" s="24">
       <c r="A87" t="inlineStr">
